--- a/TestResults/HolidayPost.xlsx
+++ b/TestResults/HolidayPost.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="79">
   <si>
     <t>TestCase ID</t>
   </si>
@@ -47,10 +47,10 @@
     <t>Comments</t>
   </si>
   <si>
-    <t>TC_01</t>
-  </si>
-  <si>
-    <t>Validate that the Holiday service is successfully created when valid values are passed for all attributes in JSON Request.</t>
+    <t>TC_02</t>
+  </si>
+  <si>
+    <t>Validate that the Holiday service is not created when the Holiday Name is empty in JSON Request.</t>
   </si>
   <si>
     <t>Post</t>
@@ -60,62 +60,589 @@
 {
 	"meta":
 	{
-		"userName":"Automation"
+		"userName":"3708426"
 	},
 	"holiday":
 	{
-		"holidayName":"TestHDName",
-		"holidayDateParamText":"TestHDholidayDate"
+		"holidayName":"",
+		"holidayDateParameterText":"Holiday_Param"
 	}
 }</t>
   </si>
   <si>
-    <t xml:space="preserve">Input_UserName: Automation
-Response_HolidayId: 9013583257821525879
-Input_HolidayName: TestHDName
-Input_HolidayParamaText: TestHDholidayDate
-Input_LastUpdateUserName: Automation
+    <t xml:space="preserve">Input_UserName: 3708426
+Input_HolidayName: 
+Input_holidayDateParameterText: Holiday_Param
 </t>
   </si>
   <si>
-    <t xml:space="preserve">DB_UserName: Automation
-DB_HolidayId: 9013583257821525879
-DB_HolidayName: TestHDName
-DB_HolidayParamaText: TestHDholidayDate
-DB_LastUpdateUserName: Automation
-</t>
-  </si>
-  <si>
-    <t>SUCCESS</t>
-  </si>
-  <si>
-    <t>200</t>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>HTTP/1.1 400 Bad Request</t>
+  </si>
+  <si>
+    <t>400</t>
   </si>
   <si>
     <t xml:space="preserve">
 {
 	"meta":
 	{
-		"userName":"Automation",
 		"version":"1.0.0",
+		"timeStamp":"2020-05-08 07:04:24",
+		"statusCode":"400",
 		"message":
 		{
-			"status":"SUCCESS",
-			"internalMessage":"Holiday Details successfully saved with HolidayId :9013583257821525879",
-			"data":null
+			"status":"ERROR",
+			"internalMessage":"Validation Failed",
+			"data":
+			{
+				"errorMessage":"Request Submitted With Error"
+			}
 		}
 	},
-	"data":
-	{
-		"holidayId":9013583257821525879
+	"errors":
+	[
+		{
+			"fieldName":"holidayName",
+			"message":" is a required field"
+		}
+	]
+}</t>
+  </si>
+  <si>
+    <t>Pass</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>TC_04</t>
+  </si>
+  <si>
+    <t>Verify that the ERROR message is received when the meta data section is not passed in JSON</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+{
+	"holiday":
+	{
+		"holidayName":"TestHD_Name",
+		"holidayDateParameterText":"TestHD_DateParamA"
 	}
 }</t>
   </si>
   <si>
-    <t>Pass</t>
-  </si>
-  <si>
-    <t/>
+    <t xml:space="preserve">Input_UserName: 3708426
+Input_HolidayName: TestHD_Name
+Input_holidayDateParameterText: TestHD_DateParamA
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+{
+	"meta":
+	{
+		"version":"1.0.0",
+		"timeStamp":"2020-05-08 07:04:27",
+		"statusCode":"400",
+		"message":
+		{
+			"status":"ERROR",
+			"internalMessage":"Validation Failed",
+			"data":
+			{
+				"errorMessage":"Request Submitted With Error"
+			}
+		}
+	},
+	"errors":
+	[
+		{
+			"fieldName":"meta",
+			"message":" is a required field"
+		}
+	]
+}</t>
+  </si>
+  <si>
+    <t>TC_05</t>
+  </si>
+  <si>
+    <t>Verify that the ERROR message is received when the holidayName attribute is not passed in JSON</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+{
+	"meta":
+	{
+		"userName":"3708426"
+	},
+	"holiday":
+	{
+		"holidayDateParameterText":"TestHD_DateParamB"
+	}
+}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Input_UserName: 3708426
+Input_HolidayName: 
+Input_holidayDateParameterText: TestHD_DateParamB
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+{
+	"meta":
+	{
+		"version":"1.0.0",
+		"timeStamp":"2020-05-08 07:04:29",
+		"statusCode":"400",
+		"message":
+		{
+			"status":"ERROR",
+			"internalMessage":"Validation Failed",
+			"data":
+			{
+				"errorMessage":"Request Submitted With Error"
+			}
+		}
+	},
+	"errors":
+	[
+		{
+			"fieldName":"holidayName",
+			"message":" is a required field"
+		}
+	]
+}</t>
+  </si>
+  <si>
+    <t>TC_07</t>
+  </si>
+  <si>
+    <t>Verify that the ERROR message is received when the user name is null or Empty in JSON</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+{
+	"meta":
+	{
+		"userName":""
+	},
+	"holiday":
+	{
+		"holidayName":"TestHD_NameQ",
+		"holidayDateParameterText":"TestHD_DateParamq"
+	}
+}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Input_UserName: 
+Input_HolidayName: TestHD_NameQ
+Input_holidayDateParameterText: TestHD_DateParamq
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+{
+	"meta":
+	{
+		"version":"1.0.0",
+		"timeStamp":"2020-05-08 07:04:31",
+		"statusCode":"400",
+		"message":
+		{
+			"status":"ERROR",
+			"internalMessage":"Validation Failed",
+			"data":
+			{
+				"errorMessage":"Request Submitted With Error"
+			}
+		}
+	},
+	"errors":
+	[
+		{
+			"fieldName":"userName",
+			"message":" is a required field"
+		}
+	]
+}</t>
+  </si>
+  <si>
+    <t>TC_08</t>
+  </si>
+  <si>
+    <t>Verify that the ERROR message is received when the holidayName is more than 65 characters length in JSON</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+{
+	"meta":
+	{
+		"userName":"3708426"
+	},
+	"holiday":
+	{
+		"holidayName":"TestHDNameTestHDNameTestHDNameTestHDNameTestHDNameTestHDNameTestHDName",
+		"holidayDateParameterText":"TestHD_DateParaml"
+	}
+}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Input_UserName: 3708426
+Input_HolidayName: TestHDNameTestHDNameTestHDNameTestHDNameTestHDNameTestHDNameTestHDName
+Input_holidayDateParameterText: TestHD_DateParaml
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+{
+	"meta":
+	{
+		"version":"1.0.0",
+		"timeStamp":"2020-05-08 07:04:32",
+		"statusCode":"400",
+		"message":
+		{
+			"status":"ERROR",
+			"internalMessage":"Validation Failed",
+			"data":
+			{
+				"errorMessage":"Request Submitted With Error"
+			}
+		}
+	},
+	"errors":
+	[
+		{
+			"fieldName":"holidayName",
+			"message":" cannot be greater than 65 characters"
+		}
+	]
+}</t>
+  </si>
+  <si>
+    <t>TC_09</t>
+  </si>
+  <si>
+    <t>Verify that the ERROR message is received when the holidayDateParamText is more than 400 characters length in JSON</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+{
+	"meta":
+	{
+		"userName":"3708426"
+	},
+	"holiday":
+	{
+		"holidayName":"TestHD_NameD",
+		"holidayDateParameterText":"TestHD_DatTestHD_DatTestHD_DatTestHD_DatTestHD_DatTestHD_DatTestHD_DatTestHD_DatTestHD_DatTestHD_DatTestHD_DatTestHD_DatTestHD_DatTestHD_DatTestHD_DatTestHD_DatTestHD_DatTestHD_DatTestHD_DatTestHD_DatTestHD_DatTestHD_DatTestHD_DatTestHD_DatTestHD_DatTestHD_DatTestHD_DatTestHD_DatTestHD_DatTestHD_DatTestHD_DatTestHD_DatTestHD_DatTestHD_DatTestHD_DatTestHD_DatTestHD_DatTestHD_DatTestHD_DatTestHD_DatTestHD_DatTestHD_DatTestHD_DatTestHD_DatTestHD_DatTestHD_DatTestHD_DatTestHD_DatTestHD_DaQ"
+	}
+}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Input_UserName: 3708426
+Input_HolidayName: TestHD_NameD
+Input_holidayDateParameterText: TestHD_DatTestHD_DatTestHD_DatTestHD_DatTestHD_DatTestHD_DatTestHD_DatTestHD_DatTestHD_DatTestHD_DatTestHD_DatTestHD_DatTestHD_DatTestHD_DatTestHD_DatTestHD_DatTestHD_DatTestHD_DatTestHD_DatTestHD_DatTestHD_DatTestHD_DatTestHD_DatTestHD_DatTestHD_DatTestHD_DatTestHD_DatTestHD_DatTestHD_DatTestHD_DatTestHD_DatTestHD_DatTestHD_DatTestHD_DatTestHD_DatTestHD_DatTestHD_DatTestHD_DatTestHD_DatTestHD_DatTestHD_DatTestHD_DatTestHD_DatTestHD_DatTestHD_DatTestHD_DatTestHD_DatTestHD_DatTestHD_DaQ
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+{
+	"meta":
+	{
+		"version":"1.0.0",
+		"timeStamp":"2020-05-08 07:04:33",
+		"statusCode":"400",
+		"message":
+		{
+			"status":"ERROR",
+			"internalMessage":"Validation Failed",
+			"data":
+			{
+				"errorMessage":"Request Submitted With Error"
+			}
+		}
+	},
+	"errors":
+	[
+		{
+			"fieldName":"holidayDateParameterText",
+			"message":"holidayDateParamText cannot be greater than 400 characters"
+		}
+	]
+}</t>
+  </si>
+  <si>
+    <t>TC_10</t>
+  </si>
+  <si>
+    <t>Verify that the ERROR message is received when the User Name is more than 25 characters length in JSON</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+{
+	"meta":
+	{
+		"userName":"3705426370542637054263705426"
+	},
+	"holiday":
+	{
+		"holidayName":"TestHD_NameD",
+		"holidayDateParameterText":"TestHD_DateParaml"
+	}
+}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Input_UserName: 3705426370542637054263705426
+Input_HolidayName: TestHD_NameD
+Input_holidayDateParameterText: TestHD_DateParaml
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+{
+	"meta":
+	{
+		"version":"1.0.0",
+		"timeStamp":"2020-05-08 07:04:35",
+		"statusCode":"400",
+		"message":
+		{
+			"status":"ERROR",
+			"internalMessage":"Validation Failed",
+			"data":
+			{
+				"errorMessage":"Request Submitted With Error"
+			}
+		}
+	},
+	"errors":
+	[
+		{
+			"fieldName":"userName",
+			"message":" cannot be greater than 25 characters"
+		}
+	]
+}</t>
+  </si>
+  <si>
+    <t>TC_11</t>
+  </si>
+  <si>
+    <t>Verify that the Exception is received when the URI is not correct</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+{
+	"meta":
+	{
+		"userName":"3708426"
+	},
+	"holiday":
+	{
+		"holidayName":"TestHD_NameD",
+		"holidayDateParameterText":"TestHD_DateParaml"
+	}
+}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Input_UserName: 3708426
+Input_HolidayName: TestHD_NameD
+Input_holidayDateParameterText: TestHD_DateParaml
+</t>
+  </si>
+  <si>
+    <t>HTTP/1.1 404 Not Found</t>
+  </si>
+  <si>
+    <t>404</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+{
+	"meta":
+	{
+		"version":"1.0.0",
+		"timeStamp":"2020-05-08 07:04:36",
+		"statusCode":"404",
+		"message":
+		{
+			"status":"ERROR",
+			"internalMessage":"Exception",
+			"data":
+			{
+				"errorMessage":"Request Submitted With Error"
+			}
+		}
+	},
+	"errors":
+	[
+		{
+			"fieldName":"Error",
+			"message":"Could not find the POST method for URL /v1/h"
+		}
+	]
+}</t>
+  </si>
+  <si>
+    <t>TC_12</t>
+  </si>
+  <si>
+    <t>Verify that the Exception is received when the user tried to process the same holidayName again</t>
+  </si>
+  <si>
+    <t>Fail</t>
+  </si>
+  <si>
+    <t>java.lang.NullPointerException</t>
+  </si>
+  <si>
+    <t>TC_14</t>
+  </si>
+  <si>
+    <t>Verify that the ERROR message is received when if any comma/bracket is missing in request then we will get the JSON parse error: Unexpected character in response.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+{
+	"meta":
+	{
+		"userName":"3708426"
+	}"holiday":
+	{
+		"holidayName":"TestHDR" "holidayDateParameterText":"HolidayHDDateR"
+	}
+}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Input_UserName: 3708426
+Input_HolidayName: TestHDR
+Input_holidayDateParameterText: HolidayHDDateR
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+{
+	"meta":
+	{
+		"version":"1.0.0",
+		"timeStamp":"2020-05-08 07:04:39",
+		"statusCode":"400",
+		"message":
+		{
+			"status":"ERROR",
+			"internalMessage":"Json Parser Error",
+			"data":
+			{
+				"errorMessage":"Request Submitted With Error"
+			}
+		}
+	},
+	"errors":
+	[
+		{
+			"fieldName":"Error",
+			"message":"JSON parse error: Unexpected character ('\"' (code 34)): was expecting comma to separate Object entries"
+		}
+	]
+}</t>
+  </si>
+  <si>
+    <t>TC_15</t>
+  </si>
+  <si>
+    <t>Verify that the ERROR message is received when we use POST url but selecting GET method.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+{
+	"meta":
+	{
+		"userName":"3708426"
+	},
+	"holiday":
+	{
+		"holidayName":"TestHDR",
+		"holidayDateParameterText":"HolidayHDDateR"
+	}
+}</t>
+  </si>
+  <si>
+    <t>HTTP/1.1 405 Method Not Allowed</t>
+  </si>
+  <si>
+    <t>405</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+{
+	"meta":
+	{
+		"version":"1.0.0",
+		"timeStamp":"2020-05-08 07:04:40",
+		"statusCode":"405",
+		"message":
+		{
+			"status":"ERROR",
+			"internalMessage":"No Such API Exists",
+			"data":
+			{
+				"errorMessage":"Request Submitted With Error"
+			}
+		}
+	},
+	"errors":
+	[
+		{
+			"fieldName":"Error",
+			"message":"Request method 'GET' not supported"
+		}
+	]
+}</t>
+  </si>
+  <si>
+    <t>TC_16</t>
+  </si>
+  <si>
+    <t>Verify that the ERROR message is received when missing HTTP Header X-CSR-SECURITY_TOKEN.</t>
+  </si>
+  <si>
+    <t>HTTP/1.1 401 Unauthorized</t>
+  </si>
+  <si>
+    <t>401</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+{
+	"meta":
+	{
+		"version":"1.0.0",
+		"timeStamp":"2020-05-08T07:04:41.643+0000",
+		"statusCode":"401",
+		"message":
+		{
+			"status":"ERROR",
+			"internalMessage":"Security Error",
+			"data":
+			{
+				"errorMessage":"Exception occurred in Security Filter"
+			}
+		}
+	},
+	"errors":
+	[
+		{
+			"fieldName":"NA",
+			"message":"Missing HTTP header X-CSR-SECURITY_TOKEN"
+		}
+	]
+}</t>
   </si>
 </sst>
 </file>
@@ -123,7 +650,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="13">
+  <fonts count="134">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
@@ -136,6 +663,611 @@
       <sz val="11.0"/>
       <color indexed="9"/>
       <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -259,7 +1391,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="134">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFill="true" applyFont="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
@@ -295,6 +1427,369 @@
       <alignment wrapText="true" horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="55" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="56" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="57" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="58" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="59" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="60" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="61" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="62" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="63" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="64" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="65" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="66" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="67" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="68" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="69" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="70" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="71" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="72" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="73" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="74" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="75" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="76" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="77" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="78" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="79" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="80" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="81" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="82" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="83" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="84" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="85" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="86" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="87" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="88" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="89" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="90" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="91" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="92" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="93" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="94" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="95" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="96" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="97" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="98" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="99" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="100" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="101" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="102" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="103" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="104" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="105" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="106" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="107" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="108" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="109" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="110" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="111" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="112" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="113" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="114" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="115" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="116" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="117" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="118" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="119" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="120" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="121" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="122" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="123" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="124" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="125" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="126" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="127" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="128" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="129" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="130" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="131" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="132" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="133" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
       <alignment wrapText="true" horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
@@ -309,17 +1804,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="11.5859375" collapsed="false"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="23.4375" collapsed="false"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="13.24609375" collapsed="false"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="35.15625" collapsed="false"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="23.4375" collapsed="false"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="23.4375" collapsed="false"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="10.24609375" collapsed="false"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="15.37890625" collapsed="false"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="23.4375" collapsed="false"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="10.5859375" collapsed="false"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="10.82421875" collapsed="false"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="11.5859375" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="23.4375" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="13.24609375" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="35.15625" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="23.4375" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="23.4375" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="10.24609375" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="15.37890625" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="23.4375" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="10.5859375" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="10.82421875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" ht="30.0" customHeight="true">
@@ -393,6 +1888,402 @@
       </c>
       <c r="L2"/>
     </row>
+    <row r="3">
+      <c r="A3" t="s" s="13">
+        <v>22</v>
+      </c>
+      <c r="B3" t="s" s="14">
+        <v>23</v>
+      </c>
+      <c r="C3" t="s" s="15">
+        <v>13</v>
+      </c>
+      <c r="D3" t="s" s="16">
+        <v>24</v>
+      </c>
+      <c r="E3" t="s" s="17">
+        <v>25</v>
+      </c>
+      <c r="F3" t="s" s="18">
+        <v>16</v>
+      </c>
+      <c r="G3" t="s" s="19">
+        <v>17</v>
+      </c>
+      <c r="H3" t="s" s="20">
+        <v>18</v>
+      </c>
+      <c r="I3" t="s" s="21">
+        <v>26</v>
+      </c>
+      <c r="J3" t="s" s="22">
+        <v>20</v>
+      </c>
+      <c r="K3" t="s" s="23">
+        <v>21</v>
+      </c>
+      <c r="L3"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="24">
+        <v>27</v>
+      </c>
+      <c r="B4" t="s" s="25">
+        <v>28</v>
+      </c>
+      <c r="C4" t="s" s="26">
+        <v>13</v>
+      </c>
+      <c r="D4" t="s" s="27">
+        <v>29</v>
+      </c>
+      <c r="E4" t="s" s="28">
+        <v>30</v>
+      </c>
+      <c r="F4" t="s" s="29">
+        <v>16</v>
+      </c>
+      <c r="G4" t="s" s="30">
+        <v>17</v>
+      </c>
+      <c r="H4" t="s" s="31">
+        <v>18</v>
+      </c>
+      <c r="I4" t="s" s="32">
+        <v>31</v>
+      </c>
+      <c r="J4" t="s" s="33">
+        <v>20</v>
+      </c>
+      <c r="K4" t="s" s="34">
+        <v>21</v>
+      </c>
+      <c r="L4"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="s" s="35">
+        <v>32</v>
+      </c>
+      <c r="B5" t="s" s="36">
+        <v>33</v>
+      </c>
+      <c r="C5" t="s" s="37">
+        <v>13</v>
+      </c>
+      <c r="D5" t="s" s="38">
+        <v>34</v>
+      </c>
+      <c r="E5" t="s" s="39">
+        <v>35</v>
+      </c>
+      <c r="F5" t="s" s="40">
+        <v>16</v>
+      </c>
+      <c r="G5" t="s" s="41">
+        <v>17</v>
+      </c>
+      <c r="H5" t="s" s="42">
+        <v>18</v>
+      </c>
+      <c r="I5" t="s" s="43">
+        <v>36</v>
+      </c>
+      <c r="J5" t="s" s="44">
+        <v>20</v>
+      </c>
+      <c r="K5" t="s" s="45">
+        <v>21</v>
+      </c>
+      <c r="L5"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="s" s="46">
+        <v>37</v>
+      </c>
+      <c r="B6" t="s" s="47">
+        <v>38</v>
+      </c>
+      <c r="C6" t="s" s="48">
+        <v>13</v>
+      </c>
+      <c r="D6" t="s" s="49">
+        <v>39</v>
+      </c>
+      <c r="E6" t="s" s="50">
+        <v>40</v>
+      </c>
+      <c r="F6" t="s" s="51">
+        <v>16</v>
+      </c>
+      <c r="G6" t="s" s="52">
+        <v>17</v>
+      </c>
+      <c r="H6" t="s" s="53">
+        <v>18</v>
+      </c>
+      <c r="I6" t="s" s="54">
+        <v>41</v>
+      </c>
+      <c r="J6" t="s" s="55">
+        <v>20</v>
+      </c>
+      <c r="K6" t="s" s="56">
+        <v>21</v>
+      </c>
+      <c r="L6"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="s" s="57">
+        <v>42</v>
+      </c>
+      <c r="B7" t="s" s="58">
+        <v>43</v>
+      </c>
+      <c r="C7" t="s" s="59">
+        <v>13</v>
+      </c>
+      <c r="D7" t="s" s="60">
+        <v>44</v>
+      </c>
+      <c r="E7" t="s" s="61">
+        <v>45</v>
+      </c>
+      <c r="F7" t="s" s="62">
+        <v>16</v>
+      </c>
+      <c r="G7" t="s" s="63">
+        <v>17</v>
+      </c>
+      <c r="H7" t="s" s="64">
+        <v>18</v>
+      </c>
+      <c r="I7" t="s" s="65">
+        <v>46</v>
+      </c>
+      <c r="J7" t="s" s="66">
+        <v>20</v>
+      </c>
+      <c r="K7" t="s" s="67">
+        <v>21</v>
+      </c>
+      <c r="L7"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="s" s="68">
+        <v>47</v>
+      </c>
+      <c r="B8" t="s" s="69">
+        <v>48</v>
+      </c>
+      <c r="C8" t="s" s="70">
+        <v>13</v>
+      </c>
+      <c r="D8" t="s" s="71">
+        <v>49</v>
+      </c>
+      <c r="E8" t="s" s="72">
+        <v>50</v>
+      </c>
+      <c r="F8" t="s" s="73">
+        <v>16</v>
+      </c>
+      <c r="G8" t="s" s="74">
+        <v>17</v>
+      </c>
+      <c r="H8" t="s" s="75">
+        <v>18</v>
+      </c>
+      <c r="I8" t="s" s="76">
+        <v>51</v>
+      </c>
+      <c r="J8" t="s" s="77">
+        <v>20</v>
+      </c>
+      <c r="K8" t="s" s="78">
+        <v>21</v>
+      </c>
+      <c r="L8"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="s" s="79">
+        <v>52</v>
+      </c>
+      <c r="B9" t="s" s="80">
+        <v>53</v>
+      </c>
+      <c r="C9" t="s" s="81">
+        <v>13</v>
+      </c>
+      <c r="D9" t="s" s="82">
+        <v>54</v>
+      </c>
+      <c r="E9" t="s" s="83">
+        <v>55</v>
+      </c>
+      <c r="F9" t="s" s="84">
+        <v>16</v>
+      </c>
+      <c r="G9" t="s" s="85">
+        <v>56</v>
+      </c>
+      <c r="H9" t="s" s="86">
+        <v>57</v>
+      </c>
+      <c r="I9" t="s" s="87">
+        <v>58</v>
+      </c>
+      <c r="J9" t="s" s="88">
+        <v>20</v>
+      </c>
+      <c r="K9" t="s" s="89">
+        <v>21</v>
+      </c>
+      <c r="L9"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="s" s="90">
+        <v>59</v>
+      </c>
+      <c r="B10" t="s" s="91">
+        <v>60</v>
+      </c>
+      <c r="C10" t="s" s="92">
+        <v>13</v>
+      </c>
+      <c r="D10" t="s" s="93">
+        <v>21</v>
+      </c>
+      <c r="E10" t="s" s="94">
+        <v>21</v>
+      </c>
+      <c r="F10" t="s" s="95">
+        <v>21</v>
+      </c>
+      <c r="G10" t="s" s="96">
+        <v>21</v>
+      </c>
+      <c r="H10" t="s" s="97">
+        <v>21</v>
+      </c>
+      <c r="I10" t="s" s="98">
+        <v>21</v>
+      </c>
+      <c r="J10" t="s" s="99">
+        <v>61</v>
+      </c>
+      <c r="K10" t="s" s="100">
+        <v>62</v>
+      </c>
+      <c r="L10"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="s" s="101">
+        <v>63</v>
+      </c>
+      <c r="B11" t="s" s="102">
+        <v>64</v>
+      </c>
+      <c r="C11" t="s" s="103">
+        <v>13</v>
+      </c>
+      <c r="D11" t="s" s="104">
+        <v>65</v>
+      </c>
+      <c r="E11" t="s" s="105">
+        <v>66</v>
+      </c>
+      <c r="F11" t="s" s="106">
+        <v>16</v>
+      </c>
+      <c r="G11" t="s" s="107">
+        <v>17</v>
+      </c>
+      <c r="H11" t="s" s="108">
+        <v>18</v>
+      </c>
+      <c r="I11" t="s" s="109">
+        <v>67</v>
+      </c>
+      <c r="J11" t="s" s="110">
+        <v>20</v>
+      </c>
+      <c r="K11" t="s" s="111">
+        <v>21</v>
+      </c>
+      <c r="L11"/>
+    </row>
+    <row r="12">
+      <c r="A12" t="s" s="112">
+        <v>68</v>
+      </c>
+      <c r="B12" t="s" s="113">
+        <v>69</v>
+      </c>
+      <c r="C12" t="s" s="114">
+        <v>13</v>
+      </c>
+      <c r="D12" t="s" s="115">
+        <v>70</v>
+      </c>
+      <c r="E12" t="s" s="116">
+        <v>66</v>
+      </c>
+      <c r="F12" t="s" s="117">
+        <v>16</v>
+      </c>
+      <c r="G12" t="s" s="118">
+        <v>71</v>
+      </c>
+      <c r="H12" t="s" s="119">
+        <v>72</v>
+      </c>
+      <c r="I12" t="s" s="120">
+        <v>73</v>
+      </c>
+      <c r="J12" t="s" s="121">
+        <v>20</v>
+      </c>
+      <c r="K12" t="s" s="122">
+        <v>21</v>
+      </c>
+      <c r="L12"/>
+    </row>
+    <row r="13">
+      <c r="A13" t="s" s="123">
+        <v>74</v>
+      </c>
+      <c r="B13" t="s" s="124">
+        <v>75</v>
+      </c>
+      <c r="C13" t="s" s="125">
+        <v>13</v>
+      </c>
+      <c r="D13" t="s" s="126">
+        <v>70</v>
+      </c>
+      <c r="E13" t="s" s="127">
+        <v>66</v>
+      </c>
+      <c r="F13" t="s" s="128">
+        <v>16</v>
+      </c>
+      <c r="G13" t="s" s="129">
+        <v>76</v>
+      </c>
+      <c r="H13" t="s" s="130">
+        <v>77</v>
+      </c>
+      <c r="I13" t="s" s="131">
+        <v>78</v>
+      </c>
+      <c r="J13" t="s" s="132">
+        <v>20</v>
+      </c>
+      <c r="K13" t="s" s="133">
+        <v>21</v>
+      </c>
+      <c r="L13"/>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
